--- a/Experiment 2/Trace Files/newreno-vegas/DroppedGraph.xlsx
+++ b/Experiment 2/Trace Files/newreno-vegas/DroppedGraph.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>NewReno</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>Vegas</t>
+  </si>
+  <si>
+    <t>T-Test Probabillity. One tailed, two-sample unequal variance</t>
   </si>
 </sst>
 </file>
@@ -509,11 +512,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="916580320"/>
-        <c:axId val="916583040"/>
+        <c:axId val="-539934432"/>
+        <c:axId val="-539937696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="916580320"/>
+        <c:axId val="-539934432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,7 +615,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="916583040"/>
+        <c:crossAx val="-539937696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -620,7 +623,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="916583040"/>
+        <c:axId val="-539937696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="65"/>
@@ -729,7 +732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="916580320"/>
+        <c:crossAx val="-539934432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1107,11 +1110,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="916587392"/>
-        <c:axId val="916587936"/>
+        <c:axId val="-539937152"/>
+        <c:axId val="-539933888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="916587392"/>
+        <c:axId val="-539937152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1213,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="916587936"/>
+        <c:crossAx val="-539933888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1218,7 +1221,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="916587936"/>
+        <c:axId val="-539933888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -1327,7 +1330,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="916587392"/>
+        <c:crossAx val="-539937152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2850,10 +2853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -3012,6 +3015,15 @@
         <v>29</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f>TTEST(B2:B11,C2:C11,1,3)</f>
+        <v>0.2592817878805358</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Experiment 2/Trace Files/newreno-vegas/DroppedGraph.xlsx
+++ b/Experiment 2/Trace Files/newreno-vegas/DroppedGraph.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>NewReno</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Vegas</t>
-  </si>
-  <si>
-    <t>T-Test Probabillity. One tailed, two-sample unequal variance</t>
   </si>
 </sst>
 </file>
@@ -512,11 +509,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-539934432"/>
-        <c:axId val="-539937696"/>
+        <c:axId val="1174922144"/>
+        <c:axId val="1174922688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-539934432"/>
+        <c:axId val="1174922144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +612,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-539937696"/>
+        <c:crossAx val="1174922688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -623,7 +620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-539937696"/>
+        <c:axId val="1174922688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="65"/>
@@ -732,7 +729,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-539934432"/>
+        <c:crossAx val="1174922144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1110,11 +1107,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-539937152"/>
-        <c:axId val="-539933888"/>
+        <c:axId val="1174926496"/>
+        <c:axId val="1174931392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-539937152"/>
+        <c:axId val="1174926496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-539933888"/>
+        <c:crossAx val="1174931392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1221,7 +1218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-539933888"/>
+        <c:axId val="1174931392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -1330,7 +1327,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-539937152"/>
+        <c:crossAx val="1174926496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2853,10 +2850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -3015,15 +3012,6 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <f>TTEST(B2:B11,C2:C11,1,3)</f>
-        <v>0.2592817878805358</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
